--- a/codes/test_shell_output/testPOS.xlsx
+++ b/codes/test_shell_output/testPOS.xlsx
@@ -428,7 +428,7 @@
     </row>
     <row r="4" spans="3:3">
       <c r="C4" s="1">
-        <v>500</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="5" spans="3:3">
@@ -438,17 +438,17 @@
     </row>
     <row r="6" spans="3:3">
       <c r="C6" s="1">
-        <v>66</v>
+        <v>288</v>
       </c>
     </row>
     <row r="7" spans="3:3">
       <c r="C7" s="1">
-        <v>13.2</v>
+        <v>19.25133689839572</v>
       </c>
     </row>
     <row r="8" spans="3:3">
       <c r="C8" s="1">
-        <v>13.2</v>
+        <v>19.25133689839572</v>
       </c>
     </row>
     <row r="9" spans="3:3">
@@ -458,17 +458,17 @@
     </row>
     <row r="10" spans="3:3">
       <c r="C10" s="1">
-        <v>94</v>
+        <v>233</v>
       </c>
     </row>
     <row r="11" spans="3:3">
       <c r="C11" s="1">
-        <v>18.8</v>
+        <v>15.57486631016043</v>
       </c>
     </row>
     <row r="12" spans="3:3">
       <c r="C12" s="1">
-        <v>18.8</v>
+        <v>15.57486631016043</v>
       </c>
     </row>
     <row r="13" spans="3:3">
@@ -478,17 +478,17 @@
     </row>
     <row r="14" spans="3:3">
       <c r="C14" s="1">
-        <v>42</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15" spans="3:3">
       <c r="C15" s="1">
-        <v>8.4</v>
+        <v>9.358288770053475</v>
       </c>
     </row>
     <row r="16" spans="3:3">
       <c r="C16" s="1">
-        <v>8.4</v>
+        <v>9.358288770053475</v>
       </c>
     </row>
     <row r="17" spans="3:3">
@@ -498,17 +498,17 @@
     </row>
     <row r="18" spans="3:3">
       <c r="C18" s="1">
-        <v>123</v>
+        <v>222</v>
       </c>
     </row>
     <row r="19" spans="3:3">
       <c r="C19" s="1">
-        <v>24.6</v>
+        <v>14.83957219251337</v>
       </c>
     </row>
     <row r="20" spans="3:3">
       <c r="C20" s="1">
-        <v>24.6</v>
+        <v>14.83957219251337</v>
       </c>
     </row>
     <row r="21" spans="3:3">
@@ -518,17 +518,17 @@
     </row>
     <row r="22" spans="3:3">
       <c r="C22" s="1">
-        <v>260</v>
+        <v>719</v>
       </c>
     </row>
     <row r="23" spans="3:3">
       <c r="C23" s="1">
-        <v>52</v>
+        <v>48.06149732620321</v>
       </c>
     </row>
     <row r="24" spans="3:3">
       <c r="C24" s="1">
-        <v>52</v>
+        <v>48.06149732620321</v>
       </c>
     </row>
     <row r="25" spans="3:3">
@@ -538,17 +538,17 @@
     </row>
     <row r="26" spans="3:3">
       <c r="C26" s="1">
-        <v>70</v>
+        <v>197</v>
       </c>
     </row>
     <row r="27" spans="3:3">
       <c r="C27" s="1">
-        <v>14</v>
+        <v>13.16844919786096</v>
       </c>
     </row>
     <row r="28" spans="3:3">
       <c r="C28" s="1">
-        <v>14</v>
+        <v>13.16844919786096</v>
       </c>
     </row>
     <row r="29" spans="3:3">
@@ -558,17 +558,17 @@
     </row>
     <row r="30" spans="3:3">
       <c r="C30" s="1">
-        <v>79</v>
+        <v>320</v>
       </c>
     </row>
     <row r="31" spans="3:3">
       <c r="C31" s="1">
-        <v>15.8</v>
+        <v>21.3903743315508</v>
       </c>
     </row>
     <row r="32" spans="3:3">
       <c r="C32" s="1">
-        <v>15.8</v>
+        <v>21.3903743315508</v>
       </c>
     </row>
     <row r="33" spans="3:3">
@@ -583,12 +583,12 @@
     </row>
     <row r="35" spans="3:3">
       <c r="C35" s="1">
-        <v>0.2</v>
+        <v>0.06684491978609626</v>
       </c>
     </row>
     <row r="36" spans="3:3">
       <c r="C36" s="1">
-        <v>0.2</v>
+        <v>0.06684491978609626</v>
       </c>
     </row>
     <row r="37" spans="3:3">
@@ -598,17 +598,17 @@
     </row>
     <row r="38" spans="3:3">
       <c r="C38" s="1">
-        <v>96</v>
+        <v>242</v>
       </c>
     </row>
     <row r="39" spans="3:3">
       <c r="C39" s="1">
-        <v>19.2</v>
+        <v>16.17647058823529</v>
       </c>
     </row>
     <row r="40" spans="3:3">
       <c r="C40" s="1">
-        <v>19.2</v>
+        <v>16.17647058823529</v>
       </c>
     </row>
     <row r="41" spans="3:3">
@@ -618,17 +618,17 @@
     </row>
     <row r="42" spans="3:3">
       <c r="C42" s="1">
-        <v>35</v>
+        <v>115</v>
       </c>
     </row>
     <row r="43" spans="3:3">
       <c r="C43" s="1">
-        <v>7</v>
+        <v>7.68716577540107</v>
       </c>
     </row>
     <row r="44" spans="3:3">
       <c r="C44" s="1">
-        <v>7</v>
+        <v>7.68716577540107</v>
       </c>
     </row>
     <row r="45" spans="3:3">
@@ -638,17 +638,17 @@
     </row>
     <row r="46" spans="3:3">
       <c r="C46" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47" spans="3:3">
       <c r="C47" s="1">
-        <v>0.2</v>
+        <v>0.4010695187165775</v>
       </c>
     </row>
     <row r="48" spans="3:3">
       <c r="C48" s="1">
-        <v>0.2</v>
+        <v>0.4010695187165775</v>
       </c>
     </row>
     <row r="49" spans="3:3">
@@ -658,17 +658,17 @@
     </row>
     <row r="50" spans="3:3">
       <c r="C50" s="1">
-        <v>1</v>
+        <v>24</v>
       </c>
     </row>
     <row r="51" spans="3:3">
       <c r="C51" s="1">
-        <v>0.2</v>
+        <v>1.60427807486631</v>
       </c>
     </row>
     <row r="52" spans="3:3">
       <c r="C52" s="1">
-        <v>0.2</v>
+        <v>1.60427807486631</v>
       </c>
     </row>
     <row r="53" spans="3:3">
@@ -678,17 +678,17 @@
     </row>
     <row r="54" spans="3:3">
       <c r="C54" s="1">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="55" spans="3:3">
       <c r="C55" s="1">
-        <v>0.8</v>
+        <v>0.6016042780748663</v>
       </c>
     </row>
     <row r="56" spans="3:3">
       <c r="C56" s="1">
-        <v>0.8</v>
+        <v>0.6016042780748663</v>
       </c>
     </row>
     <row r="57" spans="3:3">
@@ -698,17 +698,17 @@
     </row>
     <row r="58" spans="3:3">
       <c r="C58" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="59" spans="3:3">
       <c r="C59" s="1">
-        <v>0</v>
+        <v>0.3342245989304813</v>
       </c>
     </row>
     <row r="60" spans="3:3">
       <c r="C60" s="1">
-        <v>0</v>
+        <v>0.3342245989304813</v>
       </c>
     </row>
     <row r="61" spans="3:3">
@@ -738,7 +738,7 @@
     </row>
     <row r="66" spans="3:3">
       <c r="C66" s="1">
-        <v>500</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="67" spans="3:3">

--- a/codes/test_shell_output/testPOS.xlsx
+++ b/codes/test_shell_output/testPOS.xlsx
@@ -428,7 +428,7 @@
     </row>
     <row r="4" spans="3:3">
       <c r="C4" s="1">
-        <v>1496</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="5" spans="3:3">
@@ -438,17 +438,17 @@
     </row>
     <row r="6" spans="3:3">
       <c r="C6" s="1">
-        <v>288</v>
+        <v>218</v>
       </c>
     </row>
     <row r="7" spans="3:3">
       <c r="C7" s="1">
-        <v>19.25133689839572</v>
+        <v>14.53333333333333</v>
       </c>
     </row>
     <row r="8" spans="3:3">
       <c r="C8" s="1">
-        <v>19.25133689839572</v>
+        <v>14.53333333333333</v>
       </c>
     </row>
     <row r="9" spans="3:3">
@@ -458,17 +458,17 @@
     </row>
     <row r="10" spans="3:3">
       <c r="C10" s="1">
-        <v>233</v>
+        <v>262</v>
       </c>
     </row>
     <row r="11" spans="3:3">
       <c r="C11" s="1">
-        <v>15.57486631016043</v>
+        <v>17.46666666666667</v>
       </c>
     </row>
     <row r="12" spans="3:3">
       <c r="C12" s="1">
-        <v>15.57486631016043</v>
+        <v>17.46666666666667</v>
       </c>
     </row>
     <row r="13" spans="3:3">
@@ -478,17 +478,17 @@
     </row>
     <row r="14" spans="3:3">
       <c r="C14" s="1">
-        <v>140</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15" spans="3:3">
       <c r="C15" s="1">
-        <v>9.358288770053475</v>
+        <v>11.46666666666667</v>
       </c>
     </row>
     <row r="16" spans="3:3">
       <c r="C16" s="1">
-        <v>9.358288770053475</v>
+        <v>11.46666666666667</v>
       </c>
     </row>
     <row r="17" spans="3:3">
@@ -498,17 +498,17 @@
     </row>
     <row r="18" spans="3:3">
       <c r="C18" s="1">
-        <v>222</v>
+        <v>334</v>
       </c>
     </row>
     <row r="19" spans="3:3">
       <c r="C19" s="1">
-        <v>14.83957219251337</v>
+        <v>22.26666666666667</v>
       </c>
     </row>
     <row r="20" spans="3:3">
       <c r="C20" s="1">
-        <v>14.83957219251337</v>
+        <v>22.26666666666667</v>
       </c>
     </row>
     <row r="21" spans="3:3">
@@ -518,17 +518,17 @@
     </row>
     <row r="22" spans="3:3">
       <c r="C22" s="1">
-        <v>719</v>
+        <v>777</v>
       </c>
     </row>
     <row r="23" spans="3:3">
       <c r="C23" s="1">
-        <v>48.06149732620321</v>
+        <v>51.8</v>
       </c>
     </row>
     <row r="24" spans="3:3">
       <c r="C24" s="1">
-        <v>48.06149732620321</v>
+        <v>51.8</v>
       </c>
     </row>
     <row r="25" spans="3:3">
@@ -538,17 +538,17 @@
     </row>
     <row r="26" spans="3:3">
       <c r="C26" s="1">
-        <v>197</v>
+        <v>158</v>
       </c>
     </row>
     <row r="27" spans="3:3">
       <c r="C27" s="1">
-        <v>13.16844919786096</v>
+        <v>10.53333333333333</v>
       </c>
     </row>
     <row r="28" spans="3:3">
       <c r="C28" s="1">
-        <v>13.16844919786096</v>
+        <v>10.53333333333333</v>
       </c>
     </row>
     <row r="29" spans="3:3">
@@ -558,17 +558,17 @@
     </row>
     <row r="30" spans="3:3">
       <c r="C30" s="1">
-        <v>320</v>
+        <v>295</v>
       </c>
     </row>
     <row r="31" spans="3:3">
       <c r="C31" s="1">
-        <v>21.3903743315508</v>
+        <v>19.66666666666667</v>
       </c>
     </row>
     <row r="32" spans="3:3">
       <c r="C32" s="1">
-        <v>21.3903743315508</v>
+        <v>19.66666666666667</v>
       </c>
     </row>
     <row r="33" spans="3:3">
@@ -578,17 +578,17 @@
     </row>
     <row r="34" spans="3:3">
       <c r="C34" s="1">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" spans="3:3">
       <c r="C35" s="1">
-        <v>0.06684491978609626</v>
+        <v>1.066666666666667</v>
       </c>
     </row>
     <row r="36" spans="3:3">
       <c r="C36" s="1">
-        <v>0.06684491978609626</v>
+        <v>1.066666666666667</v>
       </c>
     </row>
     <row r="37" spans="3:3">
@@ -598,17 +598,17 @@
     </row>
     <row r="38" spans="3:3">
       <c r="C38" s="1">
-        <v>242</v>
+        <v>260</v>
       </c>
     </row>
     <row r="39" spans="3:3">
       <c r="C39" s="1">
-        <v>16.17647058823529</v>
+        <v>17.33333333333333</v>
       </c>
     </row>
     <row r="40" spans="3:3">
       <c r="C40" s="1">
-        <v>16.17647058823529</v>
+        <v>17.33333333333333</v>
       </c>
     </row>
     <row r="41" spans="3:3">
@@ -618,17 +618,17 @@
     </row>
     <row r="42" spans="3:3">
       <c r="C42" s="1">
-        <v>115</v>
+        <v>69</v>
       </c>
     </row>
     <row r="43" spans="3:3">
       <c r="C43" s="1">
-        <v>7.68716577540107</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="44" spans="3:3">
       <c r="C44" s="1">
-        <v>7.68716577540107</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="45" spans="3:3">
@@ -638,17 +638,17 @@
     </row>
     <row r="46" spans="3:3">
       <c r="C46" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="3:3">
       <c r="C47" s="1">
-        <v>0.4010695187165775</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="3:3">
       <c r="C48" s="1">
-        <v>0.4010695187165775</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="3:3">
@@ -658,17 +658,17 @@
     </row>
     <row r="50" spans="3:3">
       <c r="C50" s="1">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="51" spans="3:3">
       <c r="C51" s="1">
-        <v>1.60427807486631</v>
+        <v>1.133333333333333</v>
       </c>
     </row>
     <row r="52" spans="3:3">
       <c r="C52" s="1">
-        <v>1.60427807486631</v>
+        <v>1.133333333333333</v>
       </c>
     </row>
     <row r="53" spans="3:3">
@@ -678,17 +678,17 @@
     </row>
     <row r="54" spans="3:3">
       <c r="C54" s="1">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55" spans="3:3">
       <c r="C55" s="1">
-        <v>0.6016042780748663</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="56" spans="3:3">
       <c r="C56" s="1">
-        <v>0.6016042780748663</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="57" spans="3:3">
@@ -698,17 +698,17 @@
     </row>
     <row r="58" spans="3:3">
       <c r="C58" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="3:3">
       <c r="C59" s="1">
-        <v>0.3342245989304813</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="3:3">
       <c r="C60" s="1">
-        <v>0.3342245989304813</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="3:3">
@@ -738,7 +738,7 @@
     </row>
     <row r="66" spans="3:3">
       <c r="C66" s="1">
-        <v>1496</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="67" spans="3:3">

--- a/codes/test_shell_output/testPOS.xlsx
+++ b/codes/test_shell_output/testPOS.xlsx
@@ -428,7 +428,7 @@
     </row>
     <row r="4" spans="3:3">
       <c r="C4" s="1">
-        <v>1500</v>
+        <v>739</v>
       </c>
     </row>
     <row r="5" spans="3:3">
@@ -438,17 +438,17 @@
     </row>
     <row r="6" spans="3:3">
       <c r="C6" s="1">
-        <v>218</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" spans="3:3">
       <c r="C7" s="1">
-        <v>14.53333333333333</v>
+        <v>18.26792963464141</v>
       </c>
     </row>
     <row r="8" spans="3:3">
       <c r="C8" s="1">
-        <v>14.53333333333333</v>
+        <v>18.26792963464141</v>
       </c>
     </row>
     <row r="9" spans="3:3">
@@ -458,17 +458,17 @@
     </row>
     <row r="10" spans="3:3">
       <c r="C10" s="1">
-        <v>262</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="3:3">
       <c r="C11" s="1">
-        <v>17.46666666666667</v>
+        <v>19.21515561569689</v>
       </c>
     </row>
     <row r="12" spans="3:3">
       <c r="C12" s="1">
-        <v>17.46666666666667</v>
+        <v>19.21515561569689</v>
       </c>
     </row>
     <row r="13" spans="3:3">
@@ -478,17 +478,17 @@
     </row>
     <row r="14" spans="3:3">
       <c r="C14" s="1">
-        <v>172</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="3:3">
       <c r="C15" s="1">
-        <v>11.46666666666667</v>
+        <v>13.26116373477672</v>
       </c>
     </row>
     <row r="16" spans="3:3">
       <c r="C16" s="1">
-        <v>11.46666666666667</v>
+        <v>13.26116373477672</v>
       </c>
     </row>
     <row r="17" spans="3:3">
@@ -498,17 +498,17 @@
     </row>
     <row r="18" spans="3:3">
       <c r="C18" s="1">
-        <v>334</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="3:3">
       <c r="C19" s="1">
-        <v>22.26666666666667</v>
+        <v>6.224627875507442</v>
       </c>
     </row>
     <row r="20" spans="3:3">
       <c r="C20" s="1">
-        <v>22.26666666666667</v>
+        <v>6.224627875507442</v>
       </c>
     </row>
     <row r="21" spans="3:3">
@@ -518,17 +518,17 @@
     </row>
     <row r="22" spans="3:3">
       <c r="C22" s="1">
-        <v>777</v>
+        <v>304</v>
       </c>
     </row>
     <row r="23" spans="3:3">
       <c r="C23" s="1">
-        <v>51.8</v>
+        <v>41.13667117726658</v>
       </c>
     </row>
     <row r="24" spans="3:3">
       <c r="C24" s="1">
-        <v>51.8</v>
+        <v>41.13667117726658</v>
       </c>
     </row>
     <row r="25" spans="3:3">
@@ -538,17 +538,17 @@
     </row>
     <row r="26" spans="3:3">
       <c r="C26" s="1">
-        <v>158</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="3:3">
       <c r="C27" s="1">
-        <v>10.53333333333333</v>
+        <v>6.630581867388362</v>
       </c>
     </row>
     <row r="28" spans="3:3">
       <c r="C28" s="1">
-        <v>10.53333333333333</v>
+        <v>6.630581867388362</v>
       </c>
     </row>
     <row r="29" spans="3:3">
@@ -558,17 +558,17 @@
     </row>
     <row r="30" spans="3:3">
       <c r="C30" s="1">
-        <v>295</v>
+        <v>234</v>
       </c>
     </row>
     <row r="31" spans="3:3">
       <c r="C31" s="1">
-        <v>19.66666666666667</v>
+        <v>31.66441136671177</v>
       </c>
     </row>
     <row r="32" spans="3:3">
       <c r="C32" s="1">
-        <v>19.66666666666667</v>
+        <v>31.66441136671177</v>
       </c>
     </row>
     <row r="33" spans="3:3">
@@ -578,17 +578,17 @@
     </row>
     <row r="34" spans="3:3">
       <c r="C34" s="1">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="3:3">
       <c r="C35" s="1">
-        <v>1.066666666666667</v>
+        <v>6.359945872801083</v>
       </c>
     </row>
     <row r="36" spans="3:3">
       <c r="C36" s="1">
-        <v>1.066666666666667</v>
+        <v>6.359945872801083</v>
       </c>
     </row>
     <row r="37" spans="3:3">
@@ -598,17 +598,17 @@
     </row>
     <row r="38" spans="3:3">
       <c r="C38" s="1">
-        <v>260</v>
+        <v>101</v>
       </c>
     </row>
     <row r="39" spans="3:3">
       <c r="C39" s="1">
-        <v>17.33333333333333</v>
+        <v>13.66711772665765</v>
       </c>
     </row>
     <row r="40" spans="3:3">
       <c r="C40" s="1">
-        <v>17.33333333333333</v>
+        <v>13.66711772665765</v>
       </c>
     </row>
     <row r="41" spans="3:3">
@@ -618,17 +618,17 @@
     </row>
     <row r="42" spans="3:3">
       <c r="C42" s="1">
-        <v>69</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" spans="3:3">
       <c r="C43" s="1">
-        <v>4.6</v>
+        <v>3.382949932341001</v>
       </c>
     </row>
     <row r="44" spans="3:3">
       <c r="C44" s="1">
-        <v>4.6</v>
+        <v>3.382949932341001</v>
       </c>
     </row>
     <row r="45" spans="3:3">
@@ -638,17 +638,17 @@
     </row>
     <row r="46" spans="3:3">
       <c r="C46" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="3:3">
       <c r="C47" s="1">
-        <v>0</v>
+        <v>0.1353179972936401</v>
       </c>
     </row>
     <row r="48" spans="3:3">
       <c r="C48" s="1">
-        <v>0</v>
+        <v>0.1353179972936401</v>
       </c>
     </row>
     <row r="49" spans="3:3">
@@ -658,17 +658,17 @@
     </row>
     <row r="50" spans="3:3">
       <c r="C50" s="1">
-        <v>17</v>
+        <v>63</v>
       </c>
     </row>
     <row r="51" spans="3:3">
       <c r="C51" s="1">
-        <v>1.133333333333333</v>
+        <v>8.525033829499323</v>
       </c>
     </row>
     <row r="52" spans="3:3">
       <c r="C52" s="1">
-        <v>1.133333333333333</v>
+        <v>8.525033829499323</v>
       </c>
     </row>
     <row r="53" spans="3:3">
@@ -678,17 +678,17 @@
     </row>
     <row r="54" spans="3:3">
       <c r="C54" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="55" spans="3:3">
       <c r="C55" s="1">
-        <v>0.2</v>
+        <v>0.8119079837618404</v>
       </c>
     </row>
     <row r="56" spans="3:3">
       <c r="C56" s="1">
-        <v>0.2</v>
+        <v>0.8119079837618404</v>
       </c>
     </row>
     <row r="57" spans="3:3">
@@ -738,7 +738,7 @@
     </row>
     <row r="66" spans="3:3">
       <c r="C66" s="1">
-        <v>1500</v>
+        <v>739</v>
       </c>
     </row>
     <row r="67" spans="3:3">
